--- a/DONE/DONE ENCODING/BATHAN, ELVIRA.xlsx
+++ b/DONE/DONE ENCODING/BATHAN, ELVIRA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE\DONE ENCODING\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="91">
   <si>
     <t>PERIOD</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>3/19,25/2023</t>
   </si>
 </sst>
 </file>
@@ -703,17 +706,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -723,6 +723,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1615,7 +1618,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="E71" sqref="E71"/>
+      <selection pane="bottomLeft" activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1645,14 +1648,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1664,16 +1667,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="57">
+      <c r="F3" s="56">
         <v>38362</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1687,14 +1690,14 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1727,18 +1730,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1785,7 +1788,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>43.75</v>
+        <v>46.25</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1795,7 +1798,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>51.75</v>
+        <v>52.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3323,15 +3326,19 @@
       <c r="K81" s="21"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="43"/>
+      <c r="A82" s="43">
+        <v>44958</v>
+      </c>
       <c r="B82" s="21"/>
-      <c r="C82" s="14"/>
+      <c r="C82" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="42"/>
       <c r="E82" s="10"/>
       <c r="F82" s="21"/>
-      <c r="G82" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="42"/>
       <c r="I82" s="10"/>
@@ -3339,20 +3346,30 @@
       <c r="K82" s="21"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="43"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="14"/>
+      <c r="A83" s="43">
+        <v>44986</v>
+      </c>
+      <c r="B83" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C83" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="42"/>
       <c r="E83" s="10"/>
       <c r="F83" s="21"/>
-      <c r="G83" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H83" s="42"/>
+      <c r="G83" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H83" s="42">
+        <v>2</v>
+      </c>
       <c r="I83" s="10"/>
       <c r="J83" s="12"/>
-      <c r="K83" s="21"/>
+      <c r="K83" s="21" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="43"/>
@@ -3660,17 +3677,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3738,14 +3755,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3757,16 +3774,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="57">
+      <c r="F3" s="56">
         <v>38362</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3780,14 +3797,14 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3820,18 +3837,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
